--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:31:48+00:00</t>
+    <t>2023-02-08T12:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -952,7 +952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|Group)
 </t>
   </si>
   <si>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:31:04+00:00</t>
+    <t>2023-02-10T13:23:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:23:24+00:00</t>
+    <t>2023-02-10T14:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:00:13+00:00</t>
+    <t>2023-02-13T07:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:50:39+00:00</t>
+    <t>2023-02-13T11:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7186,7 +7186,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:48:16+00:00</t>
+    <t>2023-02-13T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T14:52:44+00:00</t>
+    <t>2023-02-13T15:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:10:15+00:00</t>
+    <t>2023-02-13T15:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:20:12+00:00</t>
+    <t>2023-02-13T15:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:22:00+00:00</t>
+    <t>2023-02-14T06:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:22:43+00:00</t>
+    <t>2023-02-14T09:55:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:55:25+00:00</t>
+    <t>2023-02-14T11:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:18:24+00:00</t>
+    <t>2023-02-15T10:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:47:55+00:00</t>
+    <t>2023-02-16T07:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:29:32+00:00</t>
+    <t>2023-02-16T08:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:22:59+00:00</t>
+    <t>2023-02-16T09:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:19:54+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:25:07+00:00</t>
+    <t>2023-02-18T15:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:24:19+00:00</t>
+    <t>2023-02-20T07:40:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:40:50+00:00</t>
+    <t>2023-02-27T06:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Confirmation of the diagnosis</t>
+    <t>This profile represents the confirmation of HIV diagnosis.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -885,7 +885,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-hiv-diagnosis</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-condition</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1640,7 +1640,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.12109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:44:17+00:00</t>
+    <t>2023-02-27T10:45:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:45:48+00:00</t>
+    <t>2023-02-27T12:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:41:19+00:00</t>
+    <t>2023-02-27T14:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T14:23:13+00:00</t>
+    <t>2023-02-28T11:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:11:02+00:00</t>
+    <t>2023-03-01T08:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:13:34+00:00</t>
+    <t>2023-03-02T06:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:23+00:00</t>
+    <t>2023-03-02T06:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:38:00+00:00</t>
+    <t>2023-03-03T10:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:25:55+00:00</t>
+    <t>2023-03-03T14:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:03:01+00:00</t>
+    <t>2023-03-03T14:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:47:25+00:00</t>
+    <t>2023-03-03T15:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:27:50+00:00</t>
+    <t>2023-03-03T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:14:01+00:00</t>
+    <t>2023-03-04T09:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="483">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T09:00:22+00:00</t>
+    <t>2023-03-07T16:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -489,7 +489,7 @@
     <t>Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t xml:space="preserve">pattern:system}
 </t>
   </si>
   <si>
@@ -505,13 +505,13 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Condition.identifier:HPTUI</t>
-  </si>
-  <si>
-    <t>HPTUI</t>
-  </si>
-  <si>
-    <t>Condition.identifier:HPTUI.id</t>
+    <t>Condition.identifier:PI</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Condition.identifier:PI.id</t>
   </si>
   <si>
     <t>Condition.identifier.id</t>
@@ -533,7 +533,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Condition.identifier:HPTUI.extension</t>
+    <t>Condition.identifier:PI.extension</t>
   </si>
   <si>
     <t>Condition.identifier.extension</t>
@@ -555,7 +555,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Condition.identifier:HPTUI.use</t>
+    <t>Condition.identifier:PI.use</t>
   </si>
   <si>
     <t>Condition.identifier.use</t>
@@ -588,7 +588,7 @@
     <t>Role.code or implied by context</t>
   </si>
   <si>
-    <t>Condition.identifier:HPTUI.type</t>
+    <t>Condition.identifier:PI.type</t>
   </si>
   <si>
     <t>Condition.identifier.type</t>
@@ -625,7 +625,222 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>Condition.identifier:HPTUI.system</t>
+    <t>Condition.identifier:PI.type.id</t>
+  </si>
+  <si>
+    <t>Condition.identifier.type.id</t>
+  </si>
+  <si>
+    <t>Condition.identifier:PI.type.extension</t>
+  </si>
+  <si>
+    <t>Condition.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>Condition.identifier:PI.type.coding</t>
+  </si>
+  <si>
+    <t>Condition.identifier.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Condition.identifier:PI.type.coding.id</t>
+  </si>
+  <si>
+    <t>Condition.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>Condition.identifier:PI.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Condition.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Condition.identifier:PI.type.coding.system</t>
+  </si>
+  <si>
+    <t>Condition.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Condition.identifier:PI.type.coding.version</t>
+  </si>
+  <si>
+    <t>Condition.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Condition.identifier:PI.type.coding.code</t>
+  </si>
+  <si>
+    <t>Condition.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Condition.identifier:PI.type.coding.display</t>
+  </si>
+  <si>
+    <t>Condition.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Condition.identifier:PI.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Condition.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Condition.identifier:PI.type.text</t>
+  </si>
+  <si>
+    <t>Condition.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Condition.identifier:PI.system</t>
   </si>
   <si>
     <t>Condition.identifier.system</t>
@@ -658,7 +873,7 @@
     <t>II.root or Role.id.root</t>
   </si>
   <si>
-    <t>Condition.identifier:HPTUI.value</t>
+    <t>Condition.identifier:PI.value</t>
   </si>
   <si>
     <t>Condition.identifier.value</t>
@@ -685,7 +900,7 @@
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
   </si>
   <si>
-    <t>Condition.identifier:HPTUI.period</t>
+    <t>Condition.identifier:PI.period</t>
   </si>
   <si>
     <t>Condition.identifier.period</t>
@@ -710,7 +925,7 @@
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
-    <t>Condition.identifier:HPTUI.assigner</t>
+    <t>Condition.identifier:PI.assigner</t>
   </si>
   <si>
     <t>Condition.identifier.assigner</t>
@@ -1606,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP47"/>
+  <dimension ref="A1:AP58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1615,8 +1830,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.88671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.5234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -3603,7 +3818,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
@@ -3615,35 +3830,31 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>79</v>
@@ -3679,7 +3890,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3691,7 +3902,7 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -3700,10 +3911,10 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -3714,21 +3925,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3737,19 +3948,19 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3763,7 +3974,7 @@
         <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>79</v>
@@ -3787,31 +3998,31 @@
         <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -3820,10 +4031,10 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -3834,10 +4045,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3848,7 +4059,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3860,16 +4071,20 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3917,13 +4132,13 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
@@ -3938,10 +4153,10 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -3952,10 +4167,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3975,20 +4190,18 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4037,7 +4250,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4049,7 +4262,7 @@
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4058,10 +4271,10 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4072,42 +4285,42 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4133,58 +4346,58 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>79</v>
@@ -4192,10 +4405,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4203,7 +4416,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>90</v>
@@ -4212,24 +4425,26 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4238,7 +4453,7 @@
         <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>79</v>
@@ -4253,13 +4468,13 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4277,7 +4492,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4286,36 +4501,36 @@
         <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4326,7 +4541,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4335,19 +4550,19 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4373,13 +4588,13 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -4397,13 +4612,13 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
@@ -4415,16 +4630,16 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>79</v>
@@ -4432,10 +4647,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4455,21 +4670,21 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4478,7 +4693,7 @@
         <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>79</v>
@@ -4493,13 +4708,13 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4517,7 +4732,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4535,35 +4750,35 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
@@ -4578,17 +4793,17 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4613,11 +4828,13 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -4635,7 +4852,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4650,30 +4867,30 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4684,7 +4901,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4696,18 +4913,20 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4731,13 +4950,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4755,13 +4974,13 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
@@ -4773,35 +4992,35 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
@@ -4816,17 +5035,19 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4875,10 +5096,10 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>90</v>
@@ -4890,19 +5111,19 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>79</v>
@@ -4910,10 +5131,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4936,30 +5157,32 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>309</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>79</v>
@@ -4995,7 +5218,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5010,19 +5233,19 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>79</v>
@@ -5030,10 +5253,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5041,7 +5264,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>90</v>
@@ -5056,16 +5279,16 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>318</v>
+        <v>162</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5079,7 +5302,7 @@
         <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>79</v>
@@ -5115,7 +5338,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5130,19 +5353,19 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>79</v>
@@ -5150,10 +5373,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5173,20 +5396,18 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5235,7 +5456,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5244,7 +5465,7 @@
         <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>102</v>
@@ -5256,13 +5477,13 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>79</v>
@@ -5270,10 +5491,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5281,7 +5502,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>90</v>
@@ -5296,15 +5517,17 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5353,7 +5576,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5374,13 +5597,13 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>79</v>
@@ -5388,10 +5611,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5399,7 +5622,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>90</v>
@@ -5408,21 +5631,23 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5447,13 +5672,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5471,7 +5696,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5480,25 +5705,25 @@
         <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>79</v>
@@ -5506,10 +5731,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5517,7 +5742,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>90</v>
@@ -5526,21 +5751,23 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5565,13 +5792,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5589,7 +5816,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5598,36 +5825,36 @@
         <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5650,15 +5877,17 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>353</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5683,13 +5912,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5707,7 +5936,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5719,22 +5948,22 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>356</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>79</v>
@@ -5742,10 +5971,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5768,15 +5997,17 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>163</v>
+        <v>338</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5801,13 +6032,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -5825,7 +6056,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>165</v>
+        <v>337</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5837,44 +6068,44 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>166</v>
+        <v>344</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>135</v>
+        <v>348</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5883,21 +6114,21 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>137</v>
+        <v>349</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5921,13 +6152,11 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -5945,49 +6174,49 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>166</v>
+        <v>356</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6000,26 +6229,24 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6043,13 +6270,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6067,7 +6294,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6079,41 +6306,41 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
@@ -6125,19 +6352,21 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>187</v>
+        <v>371</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6161,58 +6390,58 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>243</v>
+        <v>376</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>285</v>
+        <v>377</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>79</v>
@@ -6220,10 +6449,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6231,10 +6460,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6243,18 +6472,20 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6303,34 +6534,34 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>79</v>
@@ -6338,10 +6569,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6361,18 +6592,20 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>187</v>
+        <v>389</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6397,13 +6630,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6421,7 +6654,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6436,19 +6669,19 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
@@ -6456,10 +6689,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6470,7 +6703,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6482,16 +6715,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6541,19 +6774,19 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>387</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -6565,10 +6798,10 @@
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>79</v>
@@ -6576,10 +6809,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6587,7 +6820,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>90</v>
@@ -6599,16 +6832,16 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>162</v>
+        <v>405</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>163</v>
+        <v>406</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>164</v>
+        <v>407</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6659,7 +6892,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>165</v>
+        <v>404</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6671,7 +6904,7 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -6680,13 +6913,13 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>166</v>
+        <v>409</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>79</v>
@@ -6694,21 +6927,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6717,20 +6950,18 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>136</v>
+        <v>412</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>137</v>
+        <v>413</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6779,19 +7010,19 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>173</v>
+        <v>411</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -6803,10 +7034,10 @@
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>166</v>
+        <v>415</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -6814,46 +7045,42 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>136</v>
+        <v>412</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6901,19 +7128,19 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -6922,13 +7149,13 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>133</v>
+        <v>421</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>79</v>
@@ -6936,10 +7163,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6959,16 +7186,16 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>187</v>
+        <v>424</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6995,13 +7222,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7019,7 +7246,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7028,25 +7255,25 @@
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>427</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -7054,10 +7281,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7068,7 +7295,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7077,16 +7304,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>402</v>
+        <v>162</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>403</v>
+        <v>163</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>404</v>
+        <v>164</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7137,19 +7364,19 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>401</v>
+        <v>165</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7161,10 +7388,10 @@
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>376</v>
+        <v>166</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>79</v>
@@ -7172,21 +7399,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7198,15 +7425,17 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>406</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>407</v>
+        <v>137</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7255,7 +7484,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>405</v>
+        <v>173</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7267,24 +7496,1334 @@
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP47" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:19:15+00:00</t>
+    <t>2023-03-07T17:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:24:01+00:00</t>
+    <t>2023-03-08T15:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/master/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:26+00:00</t>
+    <t>2023-04-04T11:11:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
